--- a/Hardware/RubinatorPlatinen/Bauteile.xlsx
+++ b/Hardware/RubinatorPlatinen/Bauteile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Rubinator3000\Hardware\RubinatorPlatinen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D86490-0687-4356-8E27-21522FADB4B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53C618E-8908-4AED-A1C0-C4769172CAAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{1F309EAC-6E56-4054-A205-FAEFEF323C42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1F309EAC-6E56-4054-A205-FAEFEF323C42}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Teil</t>
   </si>
@@ -79,9 +79,6 @@
     <t>1x4</t>
   </si>
   <si>
-    <t>2x4</t>
-  </si>
-  <si>
     <t>2x10</t>
   </si>
   <si>
@@ -104,6 +101,12 @@
   </si>
   <si>
     <t>ATMega16-P + IC-Sockel</t>
+  </si>
+  <si>
+    <t>Vorhanden</t>
+  </si>
+  <si>
+    <t>2x8</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8AE843-DB82-423A-96E6-2C2EBDEB5EAE}">
-  <dimension ref="B2:C18"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,31 +475,37 @@
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -504,12 +513,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -517,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -525,12 +534,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -538,64 +547,70 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>9</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>10</v>
       </c>
       <c r="C15">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
         <v>3</v>
       </c>
     </row>

--- a/Hardware/RubinatorPlatinen/Bauteile.xlsx
+++ b/Hardware/RubinatorPlatinen/Bauteile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Rubinator3000\Hardware\RubinatorPlatinen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53C618E-8908-4AED-A1C0-C4769172CAAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16EE065-27FC-4957-AB08-8C0B517C3D34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1F309EAC-6E56-4054-A205-FAEFEF323C42}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,6 +493,9 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -512,6 +515,9 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -525,6 +531,9 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -533,6 +542,9 @@
       <c r="C8">
         <v>30</v>
       </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -546,6 +558,9 @@
       <c r="C10">
         <v>6</v>
       </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -565,6 +580,9 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -578,6 +596,9 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
@@ -600,6 +621,9 @@
         <v>13</v>
       </c>
       <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
         <v>24</v>
       </c>
     </row>
